--- a/medicine/Psychotrope/Brown_&_Williamson/Brown_&_Williamson.xlsx
+++ b/medicine/Psychotrope/Brown_&_Williamson/Brown_&_Williamson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Brown_%26_Williamson</t>
+          <t>Brown_&amp;_Williamson</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brown &amp; Williamson est une ancienne compagnie américaine du secteur du tabac, absorbée par la British American Tobacco. 
 Dans les années 1990, la société est mise sous les projecteurs lorsqu'une enquête est diligentée après que des plaintes ont été déposées selon lesquelles des substances additives auraient été ajoutées dans les cigarettes pour augmenter la dépendance des fumeurs.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brown_%26_Williamson</t>
+          <t>Brown_&amp;_Williamson</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Marques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Barclay
 Belair
